--- a/testSH/color/outputcolor.xlsx
+++ b/testSH/color/outputcolor.xlsx
@@ -20,19 +20,19 @@
     <t>n</t>
   </si>
   <si>
-    <t>实例一</t>
-  </si>
-  <si>
-    <t>实例二</t>
-  </si>
-  <si>
-    <t>实例三</t>
-  </si>
-  <si>
-    <t>实例四</t>
-  </si>
-  <si>
-    <t>实例五</t>
+    <t>sample一</t>
+  </si>
+  <si>
+    <t>sample二</t>
+  </si>
+  <si>
+    <t>sample三</t>
+  </si>
+  <si>
+    <t>sample四</t>
+  </si>
+  <si>
+    <t>sample五</t>
   </si>
   <si>
     <t>t2lp+claspD</t>
@@ -59,6 +59,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,6 +80,7 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +162,7 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -168,7 +170,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,6 +486,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="0" t="s">
         <v>9</v>
